--- a/output/0/tRNA-Tyr-GTA-5-1.xlsx
+++ b/output/0/tRNA-Tyr-GTA-5-1.xlsx
@@ -12,135 +12,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>chr8</t>
   </si>
   <si>
-    <t>67025600</t>
-  </si>
-  <si>
-    <t>67025623</t>
+    <t>67025605</t>
+  </si>
+  <si>
+    <t>67025628</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>67025625</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CGATAGCTCAGCTGGTAGAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>92% (65)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>67025608</t>
+  </si>
+  <si>
+    <t>67025631</t>
+  </si>
+  <si>
+    <t>TAGCTCAGCTGGTAGAGCGG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>94% (66)</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>67025660</t>
+  </si>
+  <si>
+    <t>67025683</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>67025603</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>CTACCAGCTGAGCTATCGAA</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>67025601</t>
-  </si>
-  <si>
-    <t>67025624</t>
-  </si>
-  <si>
-    <t>67025604</t>
-  </si>
-  <si>
-    <t>TCTACCAGCTGAGCTATCGA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>9% (21)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>67025605</t>
-  </si>
-  <si>
-    <t>67025628</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>67025625</t>
-  </si>
-  <si>
-    <t>CGATAGCTCAGCTGGTAGAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>67025608</t>
-  </si>
-  <si>
-    <t>67025631</t>
-  </si>
-  <si>
-    <t>TAGCTCAGCTGGTAGAGCGG</t>
-  </si>
-  <si>
-    <t>89% (68)</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>67025660</t>
-  </si>
-  <si>
-    <t>67025683</t>
   </si>
   <si>
     <t>67025663</t>
@@ -251,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -274,10 +226,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -333,10 +285,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -348,25 +300,25 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -380,22 +332,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -407,25 +359,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -439,22 +391,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -466,16 +418,16 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -510,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -528,7 +480,7 @@
         <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
@@ -549,124 +501,6 @@
         <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
         <v>3</v>
       </c>
     </row>
